--- a/2_output/1_alpha/correlations_v2.xlsx
+++ b/2_output/1_alpha/correlations_v2.xlsx
@@ -6,7 +6,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Cor" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="P" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -1195,4 +1196,818 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00000000000000000000000000236626259724427</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.000000000340173902067077</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000501169233618744</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.000000000000000000000622251596771061</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0000000000000133153093933105</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000103642253329641</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0000000000000000000246565272173909</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.000000142704727304757</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000194299962528651</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.000000000000000136799045050422</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.000000708728844222844</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000387528753828646</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.000000000000518071168256229</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.00000827061278862278</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0000000000000000000000000000438196777267458</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000034712325539738</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.000000000000000000669992211954201</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000530478381253046</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00000000000000000000000000000000000000000000165679478472178</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.000000000000000000161584612290056</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000246437353500821</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00000000000000000000000000000124417567956896</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0000000000484162861024118</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000001276128416034</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0000000000000000000000135817442876731</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.00000000359266674673713</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000033223511807775</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0000000000000440524686023323</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0000000000161987572412894</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000433904069246725</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0000000271731153897835</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000000000000000000000000000000000000000000000124284032908233</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000878479443562526</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0000000589239334635542</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.00000000000000000000000000000000000000000000000289162177016383</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000058984515315171</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.00000179874064879866</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.000000000000000000000000000000000413155929201162</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.000000000000000000000000000000000000000000000000191024182832171</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.00000827061278862278</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0000000000000000000000000000116108097155706</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.000000000000000000000000000000000179895381218779</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000477304032017852</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0000000000000000000152270957262318</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00000000181154102598557</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0000000000000000851585962013401</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0000000000279647621467873</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000303023881887417</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0000000000000440524686023323</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.00000192966046458546</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000061279994953169</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.00000000000000368078585019376</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.00000270836502738422</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000306111825217018</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.000000000000423842626700106</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.00000176140365386844</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0000000000000000000000126990121790012</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000520076844365732</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.00000000000000000000000000000000000000000000000182770636629754</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.00000000000000000207703893174</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000167447006611733</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.000000000000000000161584612290056</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000145465944778936</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.000000000000000000000000000000000101418434989213</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.00000000000272843324915745</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000916721192477551</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.00000000000000000000012642569221589</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.00000000000354341478349068</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000356645954529815</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.000000000000000000630257880444613</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.000000000000000369869705369735</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0000000000000000000000000000000000000000000000247282803689818</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000103350522772062</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00000000000121585922377336</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000217463644950302</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0000000000000861553256476077</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000731853712199214</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000661355843961989</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.0000000300036634006367</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.000000000000000000000000000000000000000000000000729068615549932</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000139774086890876</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0000000925150897290192</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0000000000000000000000000000202862265713134</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.000000000000000000000000000000000000000000010163395291531</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000103642253329641</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.00000000000000000000343797047425651</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00000000453261026642724</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000294197943580016</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00000000000000000000344253556511523</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.00000000000000277920405314864</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0000000000000000000000000448769329529955</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.000000000000117781068705159</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000950986119471777</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0000000000000000000000000760792286238993</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0000000000000739741244330255</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000309458588144663</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0000000000000000183285429830904</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.00000000921627944701898</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.00000000000000000000051367765036231</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000256705576563355</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000419075618864323</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.00000000000000132068321079806</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000146935297756501</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000100253933177975</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.000000000000000000000000000846734584018783</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000114350405418233</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.00000000000149752072605693</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000186740620163051</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.00000000000000000000000000000000000000095890537260905</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.0000000000000420772178276338</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000415212054852318</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.000000000000000000000000000000120324861324225</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0000000129731570277052</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0000000000000000000000000000000214513048201545</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000756211734809885</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.000000275665780655066</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0000000000000000000000000000000000016098164284002</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000743096453889876</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.00000000000000392603562350531</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000137771572793052</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.00000827061278862278</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000540909010019934</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000585873816097932</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.00000428744255179691</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.00000000000000000000000000000000000000000429638643932511</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000138073659881765</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000211195611444186</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.00000000000220074027738236</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.000000224842581099832</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000645052578454411</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.00000000000010493974035221</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.00000000214311881433119</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000914409730261324</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0000000000000554637305947012</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.00000206765319715569</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0000000000000000352369890522898</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.000000019150354610141</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000013844350245242</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.00000000000416621306812256</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.00000827061278862278</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.00000000000000000341997612626054</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000145014592731137</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0000000000000000000000000000000000068859321533527</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0000000000000000968627855314148</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000101857910275284</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000104152659364276</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.00000000000000000000000000146306208892114</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000192516103260878</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000751262513916575</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.000000000000000000838975929816424</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000413393111432388</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.000000000000000284510263332063</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000180759172103109</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.0000000000000000000000000000749539977764871</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0000000708728844222844</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.000000000000000000000000266308711523003</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000269048144834043</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.000000451394171230703</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0000000000000000000000025285138443178</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000166397722489138</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.00000000000000231169138853205</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0000000000000000000000000000000000000000149828964470164</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000067341817942291</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.00000000112649144765535</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000051036186596591</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.00000000273334519562669</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.000000000000000000000000000000000190366192822582</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000120411513942325</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000450614830033309</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.000000000189087723512481</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.00000248735723589698</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000336386621117602</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.000000000000141736591339627</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0000000077095908107516</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000315774069535371</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.00000000000000120220622364668</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.000000857488510359382</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000137072774705367</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.00000000000000000729513495723238</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.000000000136667259781335</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.00000000000000733251655350928</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0000000201190895665109</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0000000000000185025417234367</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000420550782376899</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.000000000000000000000000000000203698416062642</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0000000000000146152629896588</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000434934090890018</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.00000000000000000000000000000036225404591631</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.000000000000000000426245185653265</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000441714951970551</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0000000000000000000000000000000000000000000660982529126939</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.000000000000173592211171773</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000194364701186139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.00000000000000000000000000000000000312075725938658</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.000000000000000198176123067818</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000726635981970069</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.00000244284828393103</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.00000000000000129566084124507</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0000000000000000000000000000000000029015384067545</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.000000195711517096493</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.000000000000000000014005730676547</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.000000000000000000000000000000000000000000000153990837750469</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.000000000512015524834388</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.00000000000000000000000000000000203940442922416</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000018658602686725</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.00000386890101015586</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.00000000000000000000000000000136279995957249</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000158436202555691</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.00000000125744309790693</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000968847975960092</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>